--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="227">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,19 +259,110 @@
     <t>Data</t>
   </si>
   <si>
-    <t>CertICAOVDS.data.hdr</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>CertICAOVDS.data.hdr.iss</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.hdr</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.hdr.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.hdr.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.hdr.modifierExtension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.hdr.iss</t>
+  </si>
+  <si>
     <t>Issuer</t>
   </si>
   <si>
@@ -294,10 +385,28 @@
     <t>Message</t>
   </si>
   <si>
+    <t>CertICAOVDS.data.msg.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.modifierExtension</t>
+  </si>
+  <si>
     <t>CertICAOVDS.data.msg.pid</t>
   </si>
   <si>
     <t>Patient</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.pid.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.pid.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.pid.modifierExtension</t>
   </si>
   <si>
     <t>CertICAOVDS.data.msg.pid.dob</t>
@@ -358,6 +467,15 @@
     <t>VaccinationEvent</t>
   </si>
   <si>
+    <t>CertICAOVDS.data.msg.ve.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.ve.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.ve.modifierExtension</t>
+  </si>
+  <si>
     <t>CertICAOVDS.data.msg.ve.des</t>
   </si>
   <si>
@@ -380,6 +498,15 @@
   </si>
   <si>
     <t>VaccinationDetails</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.ve.vd.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.ve.vd.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.ve.vd.modifierExtension</t>
   </si>
   <si>
     <t>CertICAOVDS.data.msg.ve.vd.adm</t>
@@ -428,6 +555,15 @@
     <t>ServiceProvider</t>
   </si>
   <si>
+    <t>CertICAOVDS.data.msg.sp.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.sp.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.sp.modifierExtension</t>
+  </si>
+  <si>
     <t>CertICAOVDS.data.msg.sp.spn</t>
   </si>
   <si>
@@ -446,6 +582,15 @@
     <t>Contact Info</t>
   </si>
   <si>
+    <t>CertICAOVDS.data.msg.sp.cd.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.sp.cd.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.sp.cd.modifierExtension</t>
+  </si>
+  <si>
     <t>CertICAOVDS.data.msg.sp.cd.p</t>
   </si>
   <si>
@@ -470,6 +615,15 @@
     <t>DateTimeTestReport</t>
   </si>
   <si>
+    <t>CertICAOVDS.data.msg.dat.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.dat.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.dat.modifierExtension</t>
+  </si>
+  <si>
     <t>CertICAOVDS.data.msg.dat.sc</t>
   </si>
   <si>
@@ -488,6 +642,15 @@
     <t>TestResult</t>
   </si>
   <si>
+    <t>CertICAOVDS.data.msg.tr.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.tr.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.data.msg.tr.modifierExtension</t>
+  </si>
+  <si>
     <t>CertICAOVDS.data.msg.tr.tc</t>
   </si>
   <si>
@@ -516,6 +679,15 @@
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.sig.id</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.sig.extension</t>
+  </si>
+  <si>
+    <t>CertICAOVDS.sig.modifierExtension</t>
   </si>
   <si>
     <t>CertICAOVDS.sig.alg</t>
@@ -838,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -847,9 +1019,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.30078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -874,10 +1046,10 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1189,7 +1361,7 @@
         <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>73</v>
@@ -1197,7 +1369,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1220,13 +1392,13 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1277,7 +1449,7 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1292,23 +1464,23 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1320,15 +1492,17 @@
         <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>73</v>
@@ -1365,71 +1539,75 @@
         <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O6" t="s" s="2">
         <v>73</v>
       </c>
@@ -1477,27 +1655,27 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1520,13 +1698,13 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1577,7 +1755,7 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
@@ -1589,7 +1767,7 @@
         <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -1597,7 +1775,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1620,13 +1798,13 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1677,7 +1855,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1692,23 +1870,23 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1720,15 +1898,17 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>73</v>
@@ -1765,71 +1945,75 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
       </c>
@@ -1877,27 +2061,27 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1920,13 +2104,13 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1977,7 +2161,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -1997,7 +2181,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2020,13 +2204,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2077,7 +2261,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2097,7 +2281,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2120,13 +2304,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2177,7 +2361,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2197,7 +2381,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2220,13 +2404,13 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2277,7 +2461,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2289,7 +2473,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -2297,7 +2481,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2320,13 +2504,13 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2377,7 +2561,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -2392,23 +2576,23 @@
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2420,15 +2604,17 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -2465,71 +2651,75 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -2577,27 +2767,27 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2608,7 +2798,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -2623,10 +2813,10 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2677,19 +2867,19 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -2697,7 +2887,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2720,13 +2910,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2777,7 +2967,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -2792,23 +2982,23 @@
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -2820,15 +3010,17 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -2865,71 +3057,75 @@
         <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -2977,27 +3173,27 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3008,7 +3204,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3020,13 +3216,13 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3077,13 +3273,13 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
@@ -3097,7 +3293,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3120,13 +3316,13 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3177,7 +3373,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3197,7 +3393,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3220,13 +3416,13 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3277,7 +3473,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3297,7 +3493,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3320,13 +3516,13 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3377,7 +3573,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3397,7 +3593,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3420,13 +3616,13 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3477,7 +3673,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -3497,7 +3693,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3520,13 +3716,13 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3577,7 +3773,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -3597,7 +3793,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3620,13 +3816,13 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3677,7 +3873,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -3697,7 +3893,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3720,13 +3916,13 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3777,7 +3973,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -3797,7 +3993,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3808,7 +4004,7 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -3820,13 +4016,13 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3877,19 +4073,19 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -3897,7 +4093,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3920,13 +4116,13 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3977,7 +4173,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -3992,23 +4188,23 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -4020,15 +4216,17 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -4065,71 +4263,75 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4177,27 +4379,27 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4220,13 +4422,13 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4277,7 +4479,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4297,7 +4499,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4320,13 +4522,13 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4377,7 +4579,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4397,7 +4599,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4420,13 +4622,13 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4477,7 +4679,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -4497,7 +4699,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4508,7 +4710,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -4520,13 +4722,13 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4577,19 +4779,19 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -4597,7 +4799,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4620,13 +4822,13 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4677,7 +4879,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -4692,23 +4894,23 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -4720,15 +4922,17 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -4765,71 +4969,75 @@
         <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
       </c>
@@ -4877,27 +5085,27 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4920,13 +5128,13 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4977,7 +5185,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -4997,7 +5205,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5020,13 +5228,13 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5077,7 +5285,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -5097,7 +5305,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5120,13 +5328,13 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5177,7 +5385,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -5197,7 +5405,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5220,13 +5428,13 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5277,7 +5485,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -5297,7 +5505,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5320,13 +5528,13 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5377,7 +5585,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -5397,7 +5605,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5420,13 +5628,13 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5477,7 +5685,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -5497,7 +5705,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5520,13 +5728,13 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5577,7 +5785,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -5589,9 +5797,3339 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5328,7 +5328,7 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>166</v>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertICAO.xlsx
+++ b/StructureDefinition-CertICAO.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
